--- a/docs/source/recursos/agricultura/tabla_agtem_exclusion.xlsx
+++ b/docs/source/recursos/agricultura/tabla_agtem_exclusion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2088C8AB-1D2C-4125-A6C7-46C7BDECCBFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D365405-B96D-4EAC-918E-7DFD9FDA0918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F879907D-B976-4D78-92BE-EAAFE967E4C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Acuícola</t>
-  </si>
-  <si>
-    <t>Asentamiento humano</t>
   </si>
   <si>
     <t>Bosque cultivado/Palmar inducido</t>
@@ -450,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8033DF1-4273-4FAB-B026-D9D9EE818112}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +477,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -490,7 +487,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -500,7 +497,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -510,7 +507,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -520,7 +517,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -530,7 +527,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -540,7 +537,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -549,24 +546,14 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
-    <sortCondition descending="1" ref="D2:D11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+    <sortCondition descending="1" ref="D2:D10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -576,7 +563,7 @@
           <x14:formula1>
             <xm:f>'C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sectores\agricultura\funciones_valor\[tabla_fv_agtem_bio_cober_cobertura_usv_svi_16cats.xlsm]clasificacion'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C11</xm:sqref>
+          <xm:sqref>C2:C10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/source/recursos/agricultura/tabla_agtem_exclusion.xlsx
+++ b/docs/source/recursos/agricultura/tabla_agtem_exclusion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D365405-B96D-4EAC-918E-7DFD9FDA0918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BAF887-4152-4D61-913E-F899C3F905F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F879907D-B976-4D78-92BE-EAAFE967E4C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Vegetación halófila hidrófila</t>
+  </si>
+  <si>
+    <t>ND</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,8 +549,12 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
     </row>
